--- a/data/trans_orig/Q17H_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q17H_R-Edad-trans_orig.xlsx
@@ -704,33 +704,33 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>8.391495903724943</v>
+        <v>8.331344352918363</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>7.331507354279493</v>
+        <v>7.37881088088304</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.974083344575791</v>
+        <v>1.978092171029519</v>
       </c>
       <c r="F5" s="5" t="inlineStr"/>
       <c r="G5" s="5" t="n">
-        <v>5.779098635266651</v>
+        <v>5.717282442602369</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>4.900884027275334</v>
+        <v>4.823199987371726</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.797756979529405</v>
+        <v>1.775106320283605</v>
       </c>
       <c r="J5" s="5" t="inlineStr"/>
       <c r="K5" s="5" t="n">
-        <v>7.295537248824437</v>
+        <v>7.290712633499972</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6.36060401245145</v>
+        <v>6.386875041418688</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1.958687153938742</v>
+        <v>1.973034921630323</v>
       </c>
       <c r="N5" s="5" t="inlineStr"/>
     </row>
@@ -742,33 +742,33 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.55233342357827</v>
+        <v>10.64032151859899</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.441308654853595</v>
+        <v>9.365787388287222</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.541785505083995</v>
+        <v>2.5274536653977</v>
       </c>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="n">
-        <v>7.542676870391504</v>
+        <v>7.480412366211199</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.491961867753443</v>
+        <v>6.380572256074729</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.292665628554074</v>
+        <v>2.276536113111514</v>
       </c>
       <c r="J6" s="5" t="inlineStr"/>
       <c r="K6" s="5" t="n">
-        <v>8.763602146721967</v>
+        <v>8.758612198482316</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7.607819218161856</v>
+        <v>7.689517929692002</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>2.336165234489704</v>
+        <v>2.353089606606738</v>
       </c>
       <c r="N6" s="5" t="inlineStr"/>
     </row>
@@ -828,33 +828,33 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>9.662817438512139</v>
+        <v>9.593306984251583</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>8.471369856260788</v>
+        <v>8.481557900044763</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.947205438756463</v>
+        <v>1.941107706892419</v>
       </c>
       <c r="F8" s="5" t="inlineStr"/>
       <c r="G8" s="5" t="n">
-        <v>4.935474618443283</v>
+        <v>4.963234662680752</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>4.32630804305025</v>
+        <v>4.333072680855404</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>1.783517979063213</v>
+        <v>1.79482997013301</v>
       </c>
       <c r="J8" s="5" t="inlineStr"/>
       <c r="K8" s="5" t="n">
-        <v>7.724545036747788</v>
+        <v>7.686006214139893</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6.714107892132878</v>
+        <v>6.745521583067064</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1.936207129791232</v>
+        <v>1.939883628839223</v>
       </c>
       <c r="N8" s="5" t="inlineStr"/>
     </row>
@@ -866,33 +866,33 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>12.04740108865489</v>
+        <v>12.03865246473364</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>11.98352253927177</v>
+        <v>11.91306450688999</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.399712713971947</v>
+        <v>2.386714466388414</v>
       </c>
       <c r="F9" s="5" t="inlineStr"/>
       <c r="G9" s="5" t="n">
-        <v>6.299526951612788</v>
+        <v>6.415870649749164</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>5.767760982683064</v>
+        <v>5.728962979981731</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>2.213108676972644</v>
+        <v>2.223932770082381</v>
       </c>
       <c r="J9" s="5" t="inlineStr"/>
       <c r="K9" s="5" t="n">
-        <v>9.171943128088728</v>
+        <v>9.171126059521617</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>8.521866304771654</v>
+        <v>8.835774540920102</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>2.246555670156159</v>
+        <v>2.259386382010518</v>
       </c>
       <c r="N9" s="5" t="inlineStr"/>
     </row>
@@ -952,33 +952,33 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>9.548701480155589</v>
+        <v>9.564810459508895</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>8.100156332737836</v>
+        <v>8.059715344897354</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.788140367712931</v>
+        <v>1.820889252584752</v>
       </c>
       <c r="F11" s="5" t="inlineStr"/>
       <c r="G11" s="5" t="n">
-        <v>5.75303003182177</v>
+        <v>5.719151545193378</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>4.098761404441105</v>
+        <v>4.087714084171644</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.761149707941817</v>
+        <v>1.758532905801287</v>
       </c>
       <c r="J11" s="5" t="inlineStr"/>
       <c r="K11" s="5" t="n">
-        <v>7.884077809948805</v>
+        <v>7.867755621224418</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6.274073591467816</v>
+        <v>6.241203808720896</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1.839473347253814</v>
+        <v>1.822596952832705</v>
       </c>
       <c r="N11" s="5" t="inlineStr"/>
     </row>
@@ -990,33 +990,33 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>13.62053075699307</v>
+        <v>13.39298502878712</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11.11653760122462</v>
+        <v>10.87289455814701</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.223862101182446</v>
+        <v>2.239650651436177</v>
       </c>
       <c r="F12" s="5" t="inlineStr"/>
       <c r="G12" s="5" t="n">
-        <v>7.749763739337779</v>
+        <v>7.745900803899672</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>5.257421289743275</v>
+        <v>5.277138537451391</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.159577964343247</v>
+        <v>2.165858294255764</v>
       </c>
       <c r="J12" s="5" t="inlineStr"/>
       <c r="K12" s="5" t="n">
-        <v>10.08559397986673</v>
+        <v>10.0794253398341</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>7.745375860853595</v>
+        <v>7.761251119724108</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>2.145992534913356</v>
+        <v>2.127784590112721</v>
       </c>
       <c r="N12" s="5" t="inlineStr"/>
     </row>
@@ -1076,33 +1076,33 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>8.773490593465224</v>
+        <v>8.706609316505434</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7.824128641323226</v>
+        <v>7.835012537775449</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.716643977033851</v>
+        <v>1.749025917149825</v>
       </c>
       <c r="F14" s="5" t="inlineStr"/>
       <c r="G14" s="5" t="n">
-        <v>4.199124413066311</v>
+        <v>4.220443461540233</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>5.121908597723731</v>
+        <v>5.133245647482657</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>1.710118448872758</v>
+        <v>1.693363783792736</v>
       </c>
       <c r="J14" s="5" t="inlineStr"/>
       <c r="K14" s="5" t="n">
-        <v>6.699548362407766</v>
+        <v>6.701565397808552</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6.785053397833151</v>
+        <v>6.79461213925526</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1.758859238807135</v>
+        <v>1.771067617104449</v>
       </c>
       <c r="N14" s="5" t="inlineStr"/>
     </row>
@@ -1114,33 +1114,33 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>12.13870254864258</v>
+        <v>11.98382744026404</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>10.81458960732214</v>
+        <v>10.85930570723557</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.160991825686813</v>
+        <v>2.165677938632935</v>
       </c>
       <c r="F15" s="5" t="inlineStr"/>
       <c r="G15" s="5" t="n">
-        <v>6.298911375650474</v>
+        <v>6.241068624470098</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>9.780655718211205</v>
+        <v>9.746315503494834</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>2.111577748127965</v>
+        <v>2.104193089963017</v>
       </c>
       <c r="J15" s="5" t="inlineStr"/>
       <c r="K15" s="5" t="n">
-        <v>8.614096308313828</v>
+        <v>8.753675307410047</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>9.498360556174083</v>
+        <v>9.394556016031132</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>2.051317079388579</v>
+        <v>2.061355463202778</v>
       </c>
       <c r="N15" s="5" t="inlineStr"/>
     </row>
@@ -1200,33 +1200,33 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>4.95810950135925</v>
+        <v>4.950980249652815</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>5.798433706091852</v>
+        <v>5.836593793339745</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.419301980259031</v>
+        <v>1.402724037718965</v>
       </c>
       <c r="F17" s="5" t="inlineStr"/>
       <c r="G17" s="5" t="n">
-        <v>3.614417250698467</v>
+        <v>3.694840095070016</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>2.739325489499123</v>
+        <v>2.749202436113022</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.330098964706881</v>
+        <v>1.309559644945232</v>
       </c>
       <c r="J17" s="5" t="inlineStr"/>
       <c r="K17" s="5" t="n">
-        <v>4.488090321419234</v>
+        <v>4.491136393896139</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4.406596434882082</v>
+        <v>4.423905697017807</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1.447701915539419</v>
+        <v>1.436511809131412</v>
       </c>
       <c r="N17" s="5" t="inlineStr"/>
     </row>
@@ -1238,33 +1238,33 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.003251709872551</v>
+        <v>8.265775079973469</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.859262585762943</v>
+        <v>10.23718359945402</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.894200145554755</v>
+        <v>1.885925551310642</v>
       </c>
       <c r="F18" s="5" t="inlineStr"/>
       <c r="G18" s="5" t="n">
-        <v>6.213729537017982</v>
+        <v>6.499000541888884</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.596504087335394</v>
+        <v>4.495584548247042</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.821881161599161</v>
+        <v>1.777677597926328</v>
       </c>
       <c r="J18" s="5" t="inlineStr"/>
       <c r="K18" s="5" t="n">
-        <v>6.336664283873977</v>
+        <v>6.347654341856612</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6.663090222365818</v>
+        <v>6.729730894761729</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>1.780010686136473</v>
+        <v>1.774540321055197</v>
       </c>
       <c r="N18" s="5" t="inlineStr"/>
     </row>
@@ -1324,33 +1324,33 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>2.429768433559442</v>
+        <v>2.437460127421532</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>2.625840889220526</v>
+        <v>2.529400749768797</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.255900796318612</v>
+        <v>1.266883020744335</v>
       </c>
       <c r="F20" s="5" t="inlineStr"/>
       <c r="G20" s="5" t="n">
-        <v>2.119945683188488</v>
+        <v>2.033251241308403</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>1.698200980870085</v>
+        <v>1.716955312819291</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>1.061138189155545</v>
+        <v>1.037104377332369</v>
       </c>
       <c r="J20" s="5" t="inlineStr"/>
       <c r="K20" s="5" t="n">
-        <v>2.413319812540277</v>
+        <v>2.410007685685028</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2.270862249215366</v>
+        <v>2.2735679751499</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1.215380760240294</v>
+        <v>1.224389099755559</v>
       </c>
       <c r="N20" s="5" t="inlineStr"/>
     </row>
@@ -1362,33 +1362,33 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>7.219544766535658</v>
+        <v>7.100143241572055</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>6.986141661466998</v>
+        <v>6.9373253939783</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1.758086091017519</v>
+        <v>1.764555033188017</v>
       </c>
       <c r="F21" s="5" t="inlineStr"/>
       <c r="G21" s="5" t="n">
-        <v>3.813270339367414</v>
+        <v>3.773256345212377</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>3.235630172431451</v>
+        <v>3.412588914774533</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>1.512078036912078</v>
+        <v>1.478487480338352</v>
       </c>
       <c r="J21" s="5" t="inlineStr"/>
       <c r="K21" s="5" t="n">
-        <v>4.548959357206304</v>
+        <v>4.474926937095177</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>4.212318059079203</v>
+        <v>4.249753579115749</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1.542107162226932</v>
+        <v>1.5276436861212</v>
       </c>
       <c r="N21" s="5" t="inlineStr"/>
     </row>
@@ -1448,33 +1448,33 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.845699862567957</v>
+        <v>1.876664901953866</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.542381638043618</v>
+        <v>1.521235281911685</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.070578359838575</v>
+        <v>1.067341687835047</v>
       </c>
       <c r="F23" s="5" t="inlineStr"/>
       <c r="G23" s="5" t="n">
-        <v>1.533014400705</v>
+        <v>1.519951504695598</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1.703225637523377</v>
+        <v>1.705276856812923</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.9963222072615244</v>
+        <v>0.9873293644576516</v>
       </c>
       <c r="J23" s="5" t="inlineStr"/>
       <c r="K23" s="5" t="n">
-        <v>1.781889374521895</v>
+        <v>1.785097175592152</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1.75052702080338</v>
+        <v>1.718006557738605</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1.071372514905952</v>
+        <v>1.067406226682266</v>
       </c>
       <c r="N23" s="5" t="inlineStr"/>
     </row>
@@ -1486,33 +1486,33 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.465653042801248</v>
+        <v>3.365543703807364</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.640526775294659</v>
+        <v>2.629862734860003</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.480649527730069</v>
+        <v>1.478380232179208</v>
       </c>
       <c r="F24" s="5" t="inlineStr"/>
       <c r="G24" s="5" t="n">
-        <v>2.862582259647835</v>
+        <v>2.798087224044184</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.143688095501294</v>
+        <v>3.230732265733214</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.38301169466121</v>
+        <v>1.396751062026423</v>
       </c>
       <c r="J24" s="5" t="inlineStr"/>
       <c r="K24" s="5" t="n">
-        <v>2.816373823445579</v>
+        <v>2.846040133014446</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2.77972560428032</v>
+        <v>2.740276280127143</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1.35406171024149</v>
+        <v>1.358701530142794</v>
       </c>
       <c r="N24" s="5" t="inlineStr"/>
     </row>
@@ -1572,33 +1572,33 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>8.216570895027264</v>
+        <v>8.147129043260586</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>7.391163646933366</v>
+        <v>7.366941173571321</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1.797583588350145</v>
+        <v>1.802356697605298</v>
       </c>
       <c r="F26" s="5" t="inlineStr"/>
       <c r="G26" s="5" t="n">
-        <v>4.736718484921505</v>
+        <v>4.718833175880889</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>4.122669981878345</v>
+        <v>4.105135118769286</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>1.658919989207269</v>
+        <v>1.657877631063076</v>
       </c>
       <c r="J26" s="5" t="inlineStr"/>
       <c r="K26" s="5" t="n">
-        <v>6.548130770793724</v>
+        <v>6.560459234169842</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>5.832921463963967</v>
+        <v>5.833079764267458</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1.750684484753795</v>
+        <v>1.7535148466742</v>
       </c>
       <c r="N26" s="5" t="inlineStr"/>
     </row>
@@ -1610,33 +1610,33 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>9.395953622857045</v>
+        <v>9.30262151815894</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>8.645355646041283</v>
+        <v>8.669171493167481</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1.980490016430622</v>
+        <v>1.990117872396105</v>
       </c>
       <c r="F27" s="5" t="inlineStr"/>
       <c r="G27" s="5" t="n">
-        <v>5.451199558129949</v>
+        <v>5.483828618893726</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>4.987737821792185</v>
+        <v>5.015486065703578</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>1.824637445198126</v>
+        <v>1.816892722745841</v>
       </c>
       <c r="J27" s="5" t="inlineStr"/>
       <c r="K27" s="5" t="n">
-        <v>7.277165550489153</v>
+        <v>7.244975590725445</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>6.577112931059202</v>
+        <v>6.556577625579346</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1.876608455406889</v>
+        <v>1.87917504466325</v>
       </c>
       <c r="N27" s="5" t="inlineStr"/>
     </row>
